--- a/Bumped Curves.xlsx
+++ b/Bumped Curves.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27915" windowHeight="12495"/>
   </bookViews>
@@ -5318,11 +5318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170026496"/>
-        <c:axId val="170460672"/>
+        <c:axId val="375246848"/>
+        <c:axId val="375248384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="170026496"/>
+        <c:axId val="375246848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5332,14 +5332,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170460672"/>
+        <c:crossAx val="375248384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="170460672"/>
+        <c:axId val="375248384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5350,7 +5350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170026496"/>
+        <c:crossAx val="375246848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5977,10 +5977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10118,6 +10119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10131,6 +10133,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
